--- a/Civilworks cost/RADP Preparations/Netrakona/Final/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Netrakona/Final/Projecttion_output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\RADP Preparations\Netrakona\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\RADP Preparations\Netrakona\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -1030,9 +1030,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1360,9 +1360,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3526,9 +3526,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>140</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>625.92999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>714.69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>565.07000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>647.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>74.41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>938.57</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>1079.52</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>655.94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>307.8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>1094.31</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>667.67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>817.97</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>475.85</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>712.73</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>844.17</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>635.34</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>375.82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>567.71</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>134.16</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>913.55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>926.3</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>511.73</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>1521.41</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>1061.82</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>1268.067</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4432,9 +4432,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6451,9 +6451,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>-51.09</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>-347.71</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>-625.92999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>-714.69</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>-575.15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>-837.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>-565.07000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>-712.33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>-409.68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>-522.86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>-705.59</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>-647.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>-806.89</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>-333.94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>-721.62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>-1451.95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>-711.02</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>-331.35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>-268.24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>-281.05</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>-720.33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>-890.42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>-749.37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>-501.12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>-61.6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>90.448000000000008</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>-74.41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>-938.57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>-1079.52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>-655.94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>-307.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>-1094.31</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>-667.67</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>646.38000000000011</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>435.11391877647912</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>214.6700000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>640.69192759999999</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>553.84</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>232.98811448000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>415.92999999999989</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>743.1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>-913.55</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>-926.3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>-511.73</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>-1521.41</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>-1061.82</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>-1268.067</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7741,9 +7741,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>-255.27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>374.43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>-4842.42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>395.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>-1058.0218855200001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>1949.1158463764791</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>1987.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>482.94</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>-5833.04</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>90.448000000000008</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8166,19 +8166,19 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>36.54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>64.06</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>1242.58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>602.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>898.45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>548.66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>482.94</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>90.45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="3">
         <f>SUM(C2:C13)</f>

--- a/Civilworks cost/RADP Preparations/Netrakona/Final/Projecttion_output.xlsx
+++ b/Civilworks cost/RADP Preparations/Netrakona/Final/Projecttion_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Structure_Type" sheetId="1" r:id="rId1"/>
@@ -670,7 +670,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -706,11 +706,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -722,6 +735,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4428,636 +4465,664 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="54.21875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="11">
         <v>35.828000000000003</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="11">
         <v>1263.9000000000001</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="11">
         <v>0.85</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="11">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11">
         <v>1074.3150000000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="11">
         <v>1263.9000000000001</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="11">
         <v>189.58500000000001</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3">
-        <v>10.69</v>
-      </c>
-      <c r="G3">
-        <v>200.45</v>
-      </c>
-      <c r="H3">
-        <v>0.85</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>170.38249999999999</v>
-      </c>
-      <c r="K3">
-        <v>200.45</v>
-      </c>
-      <c r="L3">
-        <v>30.067499999999999</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>38</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>239.88</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11">
+        <v>59.97</v>
+      </c>
+      <c r="K3" s="11">
+        <v>239.88</v>
+      </c>
+      <c r="L3" s="11">
+        <v>179.91</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4">
-        <v>7.37</v>
-      </c>
-      <c r="G4">
-        <v>68.311339590000003</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>68.311339590000003</v>
-      </c>
-      <c r="L4">
-        <v>68.311339590000003</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>25</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5">
-        <v>5.8959999999999999</v>
-      </c>
-      <c r="G5">
-        <v>107.2236656</v>
-      </c>
-      <c r="H5">
-        <v>0.23</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>24.661443087999999</v>
-      </c>
-      <c r="K5">
-        <v>107.2236656</v>
-      </c>
-      <c r="L5">
-        <v>82.562222512000005</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="D4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>419.66</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>251.79599999999999</v>
+      </c>
+      <c r="K4" s="11">
+        <v>419.66</v>
+      </c>
+      <c r="L4" s="11">
+        <v>167.864</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>37</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>289.74</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>173.84399999999999</v>
+      </c>
+      <c r="K5" s="11">
+        <v>289.74</v>
+      </c>
+      <c r="L5" s="11">
+        <v>115.896</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6">
-        <v>7.1920000000000002</v>
-      </c>
-      <c r="G6">
-        <v>215.6843188464791</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>215.6843188464791</v>
-      </c>
-      <c r="K6">
-        <v>215.6843188464791</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>242.75</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="11">
+        <v>145.65</v>
+      </c>
+      <c r="K6" s="11">
+        <v>242.75</v>
+      </c>
+      <c r="L6" s="11">
+        <v>97.1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7">
-        <v>3.66</v>
-      </c>
-      <c r="G7">
-        <v>106.6825267</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>106.6825267</v>
-      </c>
-      <c r="K7">
-        <v>106.6825267</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="12">
+        <v>15</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="11">
+        <v>7</v>
+      </c>
+      <c r="G7" s="11">
+        <v>226.12</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>90.448000000000008</v>
+      </c>
+      <c r="L7" s="11">
+        <v>90.448000000000008</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>121</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>74</v>
+      <c r="D8" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>116</v>
       </c>
       <c r="F8">
-        <v>5.0570000000000004</v>
+        <v>5.8959999999999999</v>
       </c>
       <c r="G8">
-        <v>112.01917659999999</v>
+        <v>107.2236656</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>112.01917659999999</v>
+        <v>24.661443087999999</v>
       </c>
       <c r="K8">
-        <v>112.01917659999999</v>
+        <v>107.2236656</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>82.562222512000005</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9">
+        <v>123</v>
+      </c>
+      <c r="C9" s="6">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>75</v>
+      <c r="D9" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="E9" t="s">
         <v>116</v>
       </c>
       <c r="F9">
-        <v>5.4</v>
+        <v>4.9249999999999998</v>
       </c>
       <c r="G9">
-        <v>57.684434760000002</v>
+        <v>335.3397243</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>57.684434760000002</v>
+        <v>261.56498495400001</v>
       </c>
       <c r="K9">
-        <v>57.684434760000002</v>
+        <v>335.3397243</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>73.77473934599999</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
+        <v>123</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>116</v>
       </c>
       <c r="F10">
-        <v>1.903</v>
+        <v>9.75</v>
       </c>
       <c r="G10">
-        <v>48.574001809999999</v>
+        <v>395.62</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>48.574001809999999</v>
+        <v>324.40839999999997</v>
       </c>
       <c r="K10">
-        <v>48.574001809999999</v>
+        <v>395.62</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>71.211600000000033</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>121</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>77</v>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E11" t="s">
         <v>116</v>
       </c>
       <c r="F11">
-        <v>4.32</v>
+        <v>7.37</v>
       </c>
       <c r="G11">
-        <v>102.82893199999999</v>
+        <v>68.311339590000003</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>51.414465999999997</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>102.82893199999999</v>
+        <v>68.311339590000003</v>
       </c>
       <c r="L11">
-        <v>51.414465999999997</v>
+        <v>68.311339590000003</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
+        <v>127</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F12">
-        <v>3.15</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>37.926277570000003</v>
+        <v>62.22</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>62.22</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>62.22</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
+        <v>127</v>
+      </c>
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F13">
-        <v>2.98</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>91.955522869999996</v>
+        <v>62.22</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>36.782209148</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>91.955522869999996</v>
+        <v>62.22</v>
       </c>
       <c r="L13">
-        <v>55.173313722000003</v>
+        <v>62.22</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
+        <v>127</v>
+      </c>
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F14">
-        <v>20.9</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>522.9</v>
+        <v>62.22</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>522.9</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>522.9</v>
+        <v>62.22</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>62.22</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>81</v>
+        <v>127</v>
+      </c>
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F15">
-        <v>3.56</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>30.07</v>
+        <v>62.22</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>30.07</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>30.07</v>
+        <v>62.22</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>62.22</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
+        <v>127</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E16" t="s">
         <v>118</v>
@@ -5066,63 +5131,63 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>374.43</v>
+        <v>62.22</v>
       </c>
       <c r="H16">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>355.70850000000002</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>374.43</v>
+        <v>62.22</v>
       </c>
       <c r="L16">
-        <v>18.721499999999988</v>
+        <v>62.22</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
+        <v>124</v>
+      </c>
+      <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="E17" t="s">
         <v>116</v>
       </c>
       <c r="F17">
-        <v>4.9249999999999998</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="G17">
-        <v>335.3397243</v>
+        <v>57.25</v>
       </c>
       <c r="H17">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>261.56498495400001</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>335.3397243</v>
+        <v>57.25</v>
       </c>
       <c r="L17">
-        <v>73.77473934599999</v>
+        <v>57.25</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -5130,40 +5195,40 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18">
+        <v>121</v>
+      </c>
+      <c r="C18" s="6">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>84</v>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="E18" t="s">
         <v>116</v>
       </c>
       <c r="F18">
-        <v>7.5650000000000004</v>
+        <v>2.98</v>
       </c>
       <c r="G18">
-        <v>158.05900270000001</v>
+        <v>91.955522869999996</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>158.05900270000001</v>
+        <v>36.782209148</v>
       </c>
       <c r="K18">
-        <v>158.05900270000001</v>
+        <v>91.955522869999996</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>55.173313722000003</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -5171,245 +5236,245 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19">
+        <v>121</v>
+      </c>
+      <c r="C19" s="6">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>85</v>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E19" t="s">
         <v>116</v>
       </c>
       <c r="F19">
-        <v>1.903</v>
+        <v>4.32</v>
       </c>
       <c r="G19">
-        <v>16.063565189999998</v>
+        <v>102.82893199999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>51.414465999999997</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>102.82893199999999</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>51.414465999999997</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
+        <v>124</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F20">
-        <v>6.76</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>282.4936586</v>
+        <v>286.86</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>282.4936586</v>
+        <v>243.83099999999999</v>
       </c>
       <c r="K20">
-        <v>282.4936586</v>
+        <v>286.86</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>43.029000000000003</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>87</v>
+        <v>120</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21">
-        <v>5.2350000000000003</v>
+        <v>10.69</v>
       </c>
       <c r="G21">
-        <v>313.34954199999999</v>
+        <v>200.45</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>313.34954199999999</v>
+        <v>170.38249999999999</v>
       </c>
       <c r="K21">
-        <v>313.34954199999999</v>
+        <v>200.45</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>30.067499999999999</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>88</v>
+        <v>124</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F22">
-        <v>9.75</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>395.62</v>
+        <v>182.66</v>
       </c>
       <c r="H22">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>324.40839999999997</v>
+        <v>155.261</v>
       </c>
       <c r="K22">
-        <v>395.62</v>
+        <v>182.66</v>
       </c>
       <c r="L22">
-        <v>71.211600000000033</v>
+        <v>27.399000000000001</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="6">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="E23" t="s">
         <v>116</v>
       </c>
       <c r="F23">
-        <v>3.0710000000000002</v>
+        <v>6.226</v>
       </c>
       <c r="G23">
-        <v>57.25</v>
+        <v>224.4495987</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>224.4495987</v>
       </c>
       <c r="K23">
-        <v>57.25</v>
+        <v>246.89455856999999</v>
       </c>
       <c r="L23">
-        <v>57.25</v>
+        <v>22.444959870000019</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>242.75</v>
+        <v>374.43</v>
       </c>
       <c r="H24">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>145.65</v>
+        <v>355.70850000000002</v>
       </c>
       <c r="K24">
-        <v>242.75</v>
+        <v>374.43</v>
       </c>
       <c r="L24">
-        <v>97.1</v>
+        <v>18.721499999999988</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -5417,40 +5482,40 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
+        <v>127</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>286.86</v>
+        <v>12.18</v>
       </c>
       <c r="H25">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>243.83099999999999</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>286.86</v>
+        <v>12.18</v>
       </c>
       <c r="L25">
-        <v>43.029000000000003</v>
+        <v>12.18</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -5458,40 +5523,40 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
+        <v>127</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>182.66</v>
+        <v>12.18</v>
       </c>
       <c r="H26">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>155.261</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>182.66</v>
+        <v>12.18</v>
       </c>
       <c r="L26">
-        <v>27.399000000000001</v>
+        <v>12.18</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -5499,40 +5564,40 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
+        <v>127</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>419.66</v>
+        <v>12.18</v>
       </c>
       <c r="H27">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>251.79599999999999</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>419.66</v>
+        <v>12.18</v>
       </c>
       <c r="L27">
-        <v>167.864</v>
+        <v>12.18</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -5540,40 +5605,40 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
+        <v>121</v>
+      </c>
+      <c r="C28" s="6">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E28" t="s">
         <v>116</v>
       </c>
       <c r="F28">
-        <v>6.226</v>
+        <v>7.1920000000000002</v>
       </c>
       <c r="G28">
-        <v>224.4495987</v>
+        <v>215.6843188464791</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>224.4495987</v>
+        <v>215.6843188464791</v>
       </c>
       <c r="K28">
-        <v>246.89455856999999</v>
+        <v>215.6843188464791</v>
       </c>
       <c r="L28">
-        <v>22.444959870000019</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -5581,25 +5646,25 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
+        <v>121</v>
+      </c>
+      <c r="C29" s="6">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E29" t="s">
         <v>116</v>
       </c>
       <c r="F29">
-        <v>1.9330000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="G29">
-        <v>118.7745324</v>
+        <v>106.6825267</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -5608,10 +5673,10 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>118.7745324</v>
+        <v>106.6825267</v>
       </c>
       <c r="K29">
-        <v>118.7745324</v>
+        <v>106.6825267</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -5622,25 +5687,25 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
+        <v>121</v>
+      </c>
+      <c r="C30" s="6">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E30" t="s">
         <v>116</v>
       </c>
       <c r="F30">
-        <v>2.31</v>
+        <v>5.0570000000000004</v>
       </c>
       <c r="G30">
-        <v>88.151549259999996</v>
+        <v>112.01917659999999</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -5649,10 +5714,10 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>88.151549259999996</v>
+        <v>112.01917659999999</v>
       </c>
       <c r="K30">
-        <v>88.151549259999996</v>
+        <v>112.01917659999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -5663,25 +5728,25 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
+        <v>121</v>
+      </c>
+      <c r="C31" s="6">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E31" t="s">
         <v>116</v>
       </c>
       <c r="F31">
-        <v>1.1779999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="G31">
-        <v>51.057474249999999</v>
+        <v>57.684434760000002</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5690,10 +5755,10 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>51.057474249999999</v>
+        <v>57.684434760000002</v>
       </c>
       <c r="K31">
-        <v>51.057474249999999</v>
+        <v>57.684434760000002</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -5704,37 +5769,37 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
+        <v>121</v>
+      </c>
+      <c r="C32" s="6">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E32" t="s">
         <v>116</v>
       </c>
       <c r="F32">
-        <v>0.35</v>
+        <v>1.903</v>
       </c>
       <c r="G32">
-        <v>28.037593059999999</v>
+        <v>48.574001809999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>48.574001809999999</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>48.574001809999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -5745,37 +5810,37 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
+        <v>121</v>
+      </c>
+      <c r="C33" s="6">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>3.15</v>
       </c>
       <c r="G33">
-        <v>42.25</v>
+        <v>37.926277570000003</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>42.25</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>42.25</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -5784,27 +5849,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
+        <v>122</v>
+      </c>
+      <c r="C34" s="6">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>20.9</v>
       </c>
       <c r="G34">
-        <v>42.25</v>
+        <v>522.9</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -5813,10 +5878,10 @@
         <v>1</v>
       </c>
       <c r="J34">
-        <v>42.25</v>
+        <v>522.9</v>
       </c>
       <c r="K34">
-        <v>42.25</v>
+        <v>522.9</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5825,39 +5890,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
+        <v>122</v>
+      </c>
+      <c r="C35" s="6">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>3.56</v>
       </c>
       <c r="G35">
-        <v>16.920000000000002</v>
+        <v>30.07</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>30.07</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>30.07</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5866,27 +5931,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
+        <v>123</v>
+      </c>
+      <c r="C36" s="6">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>7.5650000000000004</v>
       </c>
       <c r="G36">
-        <v>19.43</v>
+        <v>158.05900270000001</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -5895,10 +5960,10 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>19.43</v>
+        <v>158.05900270000001</v>
       </c>
       <c r="K36">
-        <v>19.43</v>
+        <v>158.05900270000001</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5907,39 +5972,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="C37" s="6">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="E37" t="s">
         <v>116</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>1.903</v>
       </c>
       <c r="G37">
-        <v>522.74</v>
+        <v>16.063565189999998</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>522.74</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>522.74</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5948,27 +6013,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>104</v>
+        <v>123</v>
+      </c>
+      <c r="C38" s="6">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="E38" t="s">
         <v>116</v>
       </c>
       <c r="F38">
-        <v>11.44</v>
+        <v>6.76</v>
       </c>
       <c r="G38">
-        <v>460.9</v>
+        <v>282.4936586</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -5977,10 +6042,10 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>460.9</v>
+        <v>282.4936586</v>
       </c>
       <c r="K38">
-        <v>460.9</v>
+        <v>282.4936586</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5989,288 +6054,288 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" t="s">
-        <v>105</v>
+        <v>123</v>
+      </c>
+      <c r="C39" s="6">
+        <v>8</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>5.2350000000000003</v>
       </c>
       <c r="G39">
-        <v>289.74</v>
+        <v>313.34954199999999</v>
       </c>
       <c r="H39">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>173.84399999999999</v>
+        <v>313.34954199999999</v>
       </c>
       <c r="K39">
-        <v>289.74</v>
+        <v>313.34954199999999</v>
       </c>
       <c r="L39">
-        <v>115.896</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>106</v>
+        <v>125</v>
+      </c>
+      <c r="C40" s="6">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="G40">
-        <v>239.88</v>
+        <v>118.7745324</v>
       </c>
       <c r="H40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>59.97</v>
+        <v>118.7745324</v>
       </c>
       <c r="K40">
-        <v>239.88</v>
+        <v>118.7745324</v>
       </c>
       <c r="L40">
-        <v>179.91</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41">
+        <v>125</v>
+      </c>
+      <c r="C41" s="6">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41">
+        <v>2.31</v>
+      </c>
+      <c r="G41">
+        <v>88.151549259999996</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>88.151549259999996</v>
+      </c>
+      <c r="K41">
+        <v>88.151549259999996</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="6">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="G42">
+        <v>51.057474249999999</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>51.057474249999999</v>
+      </c>
+      <c r="K42">
+        <v>51.057474249999999</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="6">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43">
+        <v>0.35</v>
+      </c>
+      <c r="G43">
+        <v>28.037593059999999</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="6">
         <v>4</v>
       </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>62.22</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>62.22</v>
-      </c>
-      <c r="L41">
-        <v>62.22</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42">
+      <c r="D44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>42.25</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>42.25</v>
+      </c>
+      <c r="K44">
+        <v>42.25</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="6">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>62.22</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>62.22</v>
-      </c>
-      <c r="L42">
-        <v>62.22</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" t="s">
-        <v>118</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>62.22</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>62.22</v>
-      </c>
-      <c r="L43">
-        <v>62.22</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>62.22</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>62.22</v>
-      </c>
-      <c r="L44">
-        <v>62.22</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>111</v>
+      <c r="D45" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>62.22</v>
+        <v>42.25</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>42.25</v>
       </c>
       <c r="K45">
-        <v>62.22</v>
+        <v>42.25</v>
       </c>
       <c r="L45">
-        <v>62.22</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -6278,170 +6343,174 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>12.18</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>113</v>
+        <v>125</v>
+      </c>
+      <c r="C47" s="6">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>12.18</v>
+        <v>19.43</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>19.43</v>
       </c>
       <c r="K47">
-        <v>12.18</v>
+        <v>19.43</v>
       </c>
       <c r="L47">
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>114</v>
+        <v>126</v>
+      </c>
+      <c r="C48" s="6">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>12.18</v>
+        <v>522.74</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>522.74</v>
       </c>
       <c r="K48">
-        <v>12.18</v>
+        <v>522.74</v>
       </c>
       <c r="L48">
-        <v>12.18</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49">
-        <v>15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="C49" s="6">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>11.44</v>
       </c>
       <c r="G49">
-        <v>226.12</v>
+        <v>460.9</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>460.9</v>
       </c>
       <c r="K49">
-        <v>90.448000000000008</v>
+        <v>460.9</v>
       </c>
       <c r="L49">
-        <v>90.448000000000008</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:M49">
+    <sortCondition descending="1" ref="L2:L49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8165,7 +8234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
